--- a/data/xlsx/Metrics_Evaluation_Dataset_organization_for_BBAI.xlsx
+++ b/data/xlsx/Metrics_Evaluation_Dataset_organization_for_BBAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaveBabbitt\Documents\GitHub\itm-analysis-reporting\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F1F31B-2226-4C95-BAEA-53C3482DFB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F76822-7E75-4DA7-9C4E-C0B33D15F8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7560" windowWidth="20640" windowHeight="11160" xr2:uid="{7C0A8E14-682F-4D84-BD39-310B149EC50B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -625,9 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B96E554-F34D-4A90-925A-9264686B78AC}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:B66"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
